--- a/tests/data/Writer/XLSX/saving_drawing_with_same_path.xlsx
+++ b/tests/data/Writer/XLSX/saving_drawing_with_same_path.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>foo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,8 +399,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
